--- a/PRO1/step_3/results/res_load/p_mw.xlsx
+++ b/PRO1/step_3/results/res_load/p_mw.xlsx
@@ -502,19 +502,19 @@
         <v>0.09376477499999999</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -576,19 +576,19 @@
         <v>0.09026579250000001</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -650,19 +650,19 @@
         <v>0.08664839820000002</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -724,16 +724,16 @@
         <v>0.086630232</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -798,19 +798,19 @@
         <v>0.084305754</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -872,19 +872,19 @@
         <v>0.0861200535</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -946,19 +946,19 @@
         <v>0.090488229</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1020,19 +1020,19 @@
         <v>0.102483225</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.0396</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="W9">
-        <v>0.0066</v>
+        <v>0.0462</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1094,19 +1094,19 @@
         <v>0.1438640385</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
       <c r="W10">
-        <v>0.0132</v>
+        <v>0.033</v>
       </c>
       <c r="X10">
-        <v>0.0066</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1168,19 +1168,19 @@
         <v>0.1799895825</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.0726</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1242,19 +1242,19 @@
         <v>0.2377958895</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.07919999999999999</v>
       </c>
       <c r="V12">
-        <v>0.0066</v>
+        <v>0.05280000000000001</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
       <c r="X12">
-        <v>0.0066</v>
+        <v>0.07919999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1316,19 +1316,19 @@
         <v>0.2823813135</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="U13">
-        <v>0.0066</v>
+        <v>0.09239999999999998</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.1056</v>
       </c>
       <c r="W13">
-        <v>0.0066</v>
+        <v>0.1056</v>
       </c>
       <c r="X13">
-        <v>0.0066</v>
+        <v>0.07919999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1390,19 +1390,19 @@
         <v>0.286455117</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>0.08579999999999999</v>
       </c>
       <c r="U14">
-        <v>0.0066</v>
+        <v>0.05940000000000001</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.1056</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.09239999999999998</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.08579999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1464,19 +1464,19 @@
         <v>0.283139454</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.07919999999999999</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>0.07919999999999999</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>0.09239999999999998</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.08579999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1538,19 +1538,19 @@
         <v>0.2830396725</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
       <c r="U16">
-        <v>0.0066</v>
+        <v>0.1122</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>0.08579999999999999</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>0.08579999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1612,19 +1612,19 @@
         <v>0.282606402</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.1056</v>
       </c>
       <c r="U17">
-        <v>0.0066</v>
+        <v>0.1056</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>0.1056</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>0.07919999999999999</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>0.1385999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1686,19 +1686,19 @@
         <v>0.239824338</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.1385999999999999</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>0.1122</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.09239999999999998</v>
       </c>
       <c r="X18">
-        <v>0.0132</v>
+        <v>0.1188</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1760,19 +1760,19 @@
         <v>0.162555003</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.1122</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>0.1122</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="W19">
-        <v>0.0132</v>
+        <v>0.1583999999999999</v>
       </c>
       <c r="X19">
-        <v>0.0132</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1834,19 +1834,19 @@
         <v>0.1419718365</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>0.09239999999999998</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>0.1385999999999999</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>0.09239999999999998</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>0.1188</v>
       </c>
       <c r="X20">
-        <v>0.0132</v>
+        <v>0.1517999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1908,19 +1908,19 @@
         <v>0.119804763</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>0.1385999999999999</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>0.1649999999999999</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>0.07919999999999999</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>0.1188</v>
       </c>
       <c r="X21">
-        <v>0.0066</v>
+        <v>0.1385999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1982,19 +1982,19 @@
         <v>0.111581574</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.1122</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>0.1517999999999999</v>
       </c>
       <c r="V22">
-        <v>0.0066</v>
+        <v>0.0726</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>0.09239999999999998</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2056,19 +2056,19 @@
         <v>0.108790344</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.09239999999999998</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>0.05280000000000001</v>
       </c>
       <c r="W23">
-        <v>0.0066</v>
+        <v>0.0726</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>0.0726</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2130,19 +2130,19 @@
         <v>0.1018802265</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="V24">
-        <v>0.0066</v>
+        <v>0.05280000000000001</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="X24">
-        <v>0.0066</v>
+        <v>0.0726</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2204,19 +2204,19 @@
         <v>0.09877572900000001</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="V25">
-        <v>0.0066</v>
+        <v>0.0264</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="X25">
-        <v>0.0066</v>
+        <v>0.033</v>
       </c>
     </row>
   </sheetData>

--- a/PRO1/step_3/results/res_load/p_mw.xlsx
+++ b/PRO1/step_3/results/res_load/p_mw.xlsx
@@ -502,19 +502,19 @@
         <v>0.09376477499999999</v>
       </c>
       <c r="T2">
-        <v>0.0264</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0198</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0198</v>
+        <v>0.0066</v>
       </c>
       <c r="W2">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -576,19 +576,19 @@
         <v>0.09026579250000001</v>
       </c>
       <c r="T3">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0132</v>
+        <v>0.0066</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -650,19 +650,19 @@
         <v>0.08664839820000002</v>
       </c>
       <c r="T4">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -724,16 +724,16 @@
         <v>0.086630232</v>
       </c>
       <c r="T5">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0198</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -798,19 +798,19 @@
         <v>0.084305754</v>
       </c>
       <c r="T6">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="V6">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -872,19 +872,19 @@
         <v>0.0861200535</v>
       </c>
       <c r="T7">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.0264</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.0198</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -946,19 +946,19 @@
         <v>0.090488229</v>
       </c>
       <c r="T8">
-        <v>0.0198</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.0198</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.0198</v>
+        <v>0.0066</v>
       </c>
       <c r="W8">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1020,19 +1020,19 @@
         <v>0.102483225</v>
       </c>
       <c r="T9">
-        <v>0.0198</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.0396</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0.0066</v>
       </c>
       <c r="W9">
-        <v>0.0462</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1094,19 +1094,19 @@
         <v>0.1438640385</v>
       </c>
       <c r="T10">
-        <v>0.0198</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.0264</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.0462</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1168,19 +1168,19 @@
         <v>0.1799895825</v>
       </c>
       <c r="T11">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.0726</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.0462</v>
+        <v>0.0066</v>
       </c>
       <c r="W11">
-        <v>0.0264</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.033</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1242,19 +1242,19 @@
         <v>0.2377958895</v>
       </c>
       <c r="T12">
-        <v>0.09899999999999998</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0.07919999999999999</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>0.05280000000000001</v>
+        <v>0.0264</v>
       </c>
       <c r="W12">
-        <v>0.0462</v>
+        <v>0.0066</v>
       </c>
       <c r="X12">
-        <v>0.07919999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1316,19 +1316,19 @@
         <v>0.2823813135</v>
       </c>
       <c r="T13">
-        <v>0.066</v>
+        <v>0.0132</v>
       </c>
       <c r="U13">
-        <v>0.09239999999999998</v>
+        <v>0.0132</v>
       </c>
       <c r="V13">
-        <v>0.1056</v>
+        <v>0.0198</v>
       </c>
       <c r="W13">
-        <v>0.1056</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0.07919999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1390,19 +1390,19 @@
         <v>0.286455117</v>
       </c>
       <c r="T14">
-        <v>0.08579999999999999</v>
+        <v>0.0066</v>
       </c>
       <c r="U14">
-        <v>0.05940000000000001</v>
+        <v>0.0066</v>
       </c>
       <c r="V14">
-        <v>0.1056</v>
+        <v>0.0066</v>
       </c>
       <c r="W14">
-        <v>0.09239999999999998</v>
+        <v>0.0066</v>
       </c>
       <c r="X14">
-        <v>0.08579999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1464,19 +1464,19 @@
         <v>0.283139454</v>
       </c>
       <c r="T15">
-        <v>0.07919999999999999</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0.09899999999999998</v>
+        <v>0.0198</v>
       </c>
       <c r="V15">
-        <v>0.07919999999999999</v>
+        <v>0.0066</v>
       </c>
       <c r="W15">
-        <v>0.09239999999999998</v>
+        <v>0.0066</v>
       </c>
       <c r="X15">
-        <v>0.08579999999999999</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1538,19 +1538,19 @@
         <v>0.2830396725</v>
       </c>
       <c r="T16">
-        <v>0.0462</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0.1122</v>
+        <v>0.0066</v>
       </c>
       <c r="V16">
-        <v>0.08579999999999999</v>
+        <v>0.0066</v>
       </c>
       <c r="W16">
-        <v>0.09899999999999998</v>
+        <v>0.0066</v>
       </c>
       <c r="X16">
-        <v>0.08579999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1612,19 +1612,19 @@
         <v>0.282606402</v>
       </c>
       <c r="T17">
-        <v>0.1056</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.1056</v>
+        <v>0.0066</v>
       </c>
       <c r="V17">
-        <v>0.1056</v>
+        <v>0.0198</v>
       </c>
       <c r="W17">
-        <v>0.07919999999999999</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0.1385999999999999</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1686,19 +1686,19 @@
         <v>0.239824338</v>
       </c>
       <c r="T18">
-        <v>0.1385999999999999</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0.1122</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0.09899999999999998</v>
+        <v>0.0198</v>
       </c>
       <c r="W18">
-        <v>0.09239999999999998</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>0.1188</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1760,19 +1760,19 @@
         <v>0.162555003</v>
       </c>
       <c r="T19">
-        <v>0.1122</v>
+        <v>0.0066</v>
       </c>
       <c r="U19">
-        <v>0.1122</v>
+        <v>0.0066</v>
       </c>
       <c r="V19">
-        <v>0.132</v>
+        <v>0.0066</v>
       </c>
       <c r="W19">
-        <v>0.1583999999999999</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>0.132</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1834,19 +1834,19 @@
         <v>0.1419718365</v>
       </c>
       <c r="T20">
-        <v>0.09239999999999998</v>
+        <v>0.0132</v>
       </c>
       <c r="U20">
-        <v>0.1385999999999999</v>
+        <v>0.0132</v>
       </c>
       <c r="V20">
-        <v>0.09239999999999998</v>
+        <v>0.0198</v>
       </c>
       <c r="W20">
-        <v>0.1188</v>
+        <v>0.0066</v>
       </c>
       <c r="X20">
-        <v>0.1517999999999999</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1908,19 +1908,19 @@
         <v>0.119804763</v>
       </c>
       <c r="T21">
-        <v>0.1385999999999999</v>
+        <v>0.0066</v>
       </c>
       <c r="U21">
-        <v>0.1649999999999999</v>
+        <v>0.0066</v>
       </c>
       <c r="V21">
-        <v>0.07919999999999999</v>
+        <v>0.0066</v>
       </c>
       <c r="W21">
-        <v>0.1188</v>
+        <v>0.0066</v>
       </c>
       <c r="X21">
-        <v>0.1385999999999999</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1982,19 +1982,19 @@
         <v>0.111581574</v>
       </c>
       <c r="T22">
-        <v>0.1122</v>
+        <v>0.0066</v>
       </c>
       <c r="U22">
-        <v>0.1517999999999999</v>
+        <v>0.0066</v>
       </c>
       <c r="V22">
-        <v>0.0726</v>
+        <v>0.0132</v>
       </c>
       <c r="W22">
-        <v>0.09239999999999998</v>
+        <v>0.0066</v>
       </c>
       <c r="X22">
-        <v>0.066</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2056,19 +2056,19 @@
         <v>0.108790344</v>
       </c>
       <c r="T23">
-        <v>0.09239999999999998</v>
+        <v>0.0066</v>
       </c>
       <c r="U23">
-        <v>0.09899999999999998</v>
+        <v>0.0132</v>
       </c>
       <c r="V23">
-        <v>0.05280000000000001</v>
+        <v>0.0264</v>
       </c>
       <c r="W23">
-        <v>0.0726</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0.0726</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2130,19 +2130,19 @@
         <v>0.1018802265</v>
       </c>
       <c r="T24">
-        <v>0.0462</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0.066</v>
+        <v>0.0066</v>
       </c>
       <c r="V24">
-        <v>0.05280000000000001</v>
+        <v>0.0264</v>
       </c>
       <c r="W24">
-        <v>0.0198</v>
+        <v>0.0066</v>
       </c>
       <c r="X24">
-        <v>0.0726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2204,19 +2204,19 @@
         <v>0.09877572900000001</v>
       </c>
       <c r="T25">
-        <v>0.0198</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>0.0264</v>
+        <v>0.0066</v>
       </c>
       <c r="W25">
-        <v>0.0198</v>
+        <v>0.0066</v>
       </c>
       <c r="X25">
-        <v>0.033</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PRO1/step_3/results/res_load/p_mw.xlsx
+++ b/PRO1/step_3/results/res_load/p_mw.xlsx
@@ -502,19 +502,19 @@
         <v>0.09376477499999999</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0396</v>
       </c>
       <c r="V2">
-        <v>0.0066</v>
+        <v>0.0396</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.05280000000000001</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -576,19 +576,19 @@
         <v>0.09026579250000001</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="V3">
-        <v>0.0066</v>
+        <v>0.0132</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -650,19 +650,19 @@
         <v>0.08664839820000002</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -724,19 +724,19 @@
         <v>0.086630232</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -798,19 +798,19 @@
         <v>0.084305754</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="U6">
-        <v>0.0066</v>
+        <v>0.0132</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -872,19 +872,19 @@
         <v>0.0861200535</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.0396</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.05280000000000001</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="X7">
-        <v>0.0066</v>
+        <v>0.09899999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -946,19 +946,19 @@
         <v>0.090488229</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="V8">
-        <v>0.0066</v>
+        <v>0.0396</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.08579999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1020,19 +1020,19 @@
         <v>0.102483225</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="V9">
-        <v>0.0066</v>
+        <v>0.033</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.0726</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1094,19 +1094,19 @@
         <v>0.1438640385</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.0396</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.1188</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1168,19 +1168,19 @@
         <v>0.1799895825</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.0396</v>
       </c>
       <c r="V11">
-        <v>0.0066</v>
+        <v>0.0396</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.07919999999999999</v>
       </c>
       <c r="X11">
-        <v>0.0066</v>
+        <v>0.09239999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1242,19 +1242,19 @@
         <v>0.2377958895</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.1188</v>
       </c>
       <c r="V12">
-        <v>0.0264</v>
+        <v>0.132</v>
       </c>
       <c r="W12">
-        <v>0.0066</v>
+        <v>0.1188</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>0.1385999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1316,19 +1316,19 @@
         <v>0.2823813135</v>
       </c>
       <c r="T13">
-        <v>0.0132</v>
+        <v>0.0726</v>
       </c>
       <c r="U13">
-        <v>0.0132</v>
+        <v>0.1122</v>
       </c>
       <c r="V13">
-        <v>0.0198</v>
+        <v>0.08579999999999999</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>0.09239999999999998</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>0.2837999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1390,19 +1390,19 @@
         <v>0.286455117</v>
       </c>
       <c r="T14">
-        <v>0.0066</v>
+        <v>0.07919999999999999</v>
       </c>
       <c r="U14">
-        <v>0.0066</v>
+        <v>0.132</v>
       </c>
       <c r="V14">
-        <v>0.0066</v>
+        <v>0.08579999999999999</v>
       </c>
       <c r="W14">
-        <v>0.0066</v>
+        <v>0.0726</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.2309999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1464,19 +1464,19 @@
         <v>0.283139454</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
       <c r="U15">
-        <v>0.0198</v>
+        <v>0.1188</v>
       </c>
       <c r="V15">
-        <v>0.0066</v>
+        <v>0.132</v>
       </c>
       <c r="W15">
-        <v>0.0066</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="X15">
-        <v>0.0132</v>
+        <v>0.2705999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1538,19 +1538,19 @@
         <v>0.2830396725</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="U16">
-        <v>0.0066</v>
+        <v>0.1056</v>
       </c>
       <c r="V16">
-        <v>0.0066</v>
+        <v>0.1254</v>
       </c>
       <c r="W16">
-        <v>0.0066</v>
+        <v>0.1188</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>0.2507999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1612,19 +1612,19 @@
         <v>0.282606402</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.07919999999999999</v>
       </c>
       <c r="U17">
-        <v>0.0066</v>
+        <v>0.09239999999999998</v>
       </c>
       <c r="V17">
-        <v>0.0198</v>
+        <v>0.1913999999999999</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>0.1517999999999999</v>
       </c>
       <c r="X17">
-        <v>0.0132</v>
+        <v>0.2177999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1686,19 +1686,19 @@
         <v>0.239824338</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.0726</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>0.1188</v>
       </c>
       <c r="V18">
-        <v>0.0198</v>
+        <v>0.1781999999999999</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.1385999999999999</v>
       </c>
       <c r="X18">
-        <v>0.0198</v>
+        <v>0.2903999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1760,19 +1760,19 @@
         <v>0.162555003</v>
       </c>
       <c r="T19">
-        <v>0.0066</v>
+        <v>0.1056</v>
       </c>
       <c r="U19">
-        <v>0.0066</v>
+        <v>0.1649999999999999</v>
       </c>
       <c r="V19">
-        <v>0.0066</v>
+        <v>0.2045999999999999</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.1847999999999999</v>
       </c>
       <c r="X19">
-        <v>0.0264</v>
+        <v>0.4025999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1834,19 +1834,19 @@
         <v>0.1419718365</v>
       </c>
       <c r="T20">
-        <v>0.0132</v>
+        <v>0.0726</v>
       </c>
       <c r="U20">
-        <v>0.0132</v>
+        <v>0.1451999999999999</v>
       </c>
       <c r="V20">
-        <v>0.0198</v>
+        <v>0.1517999999999999</v>
       </c>
       <c r="W20">
-        <v>0.0066</v>
+        <v>0.1254</v>
       </c>
       <c r="X20">
-        <v>0.0198</v>
+        <v>0.3365999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1908,19 +1908,19 @@
         <v>0.119804763</v>
       </c>
       <c r="T21">
-        <v>0.0066</v>
+        <v>0.066</v>
       </c>
       <c r="U21">
-        <v>0.0066</v>
+        <v>0.1847999999999999</v>
       </c>
       <c r="V21">
-        <v>0.0066</v>
+        <v>0.2243999999999999</v>
       </c>
       <c r="W21">
-        <v>0.0066</v>
+        <v>0.1517999999999999</v>
       </c>
       <c r="X21">
-        <v>0.0132</v>
+        <v>0.4157999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1982,19 +1982,19 @@
         <v>0.111581574</v>
       </c>
       <c r="T22">
-        <v>0.0066</v>
+        <v>0.05940000000000001</v>
       </c>
       <c r="U22">
-        <v>0.0066</v>
+        <v>0.1517999999999999</v>
       </c>
       <c r="V22">
-        <v>0.0132</v>
+        <v>0.1583999999999999</v>
       </c>
       <c r="W22">
-        <v>0.0066</v>
+        <v>0.07919999999999999</v>
       </c>
       <c r="X22">
-        <v>0.0066</v>
+        <v>0.3497999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2056,19 +2056,19 @@
         <v>0.108790344</v>
       </c>
       <c r="T23">
-        <v>0.0066</v>
+        <v>0.0726</v>
       </c>
       <c r="U23">
-        <v>0.0132</v>
+        <v>0.1056</v>
       </c>
       <c r="V23">
-        <v>0.0264</v>
+        <v>0.132</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="X23">
-        <v>0.0066</v>
+        <v>0.2639999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2130,19 +2130,19 @@
         <v>0.1018802265</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>0.0462</v>
       </c>
       <c r="U24">
-        <v>0.0066</v>
+        <v>0.05940000000000001</v>
       </c>
       <c r="V24">
-        <v>0.0264</v>
+        <v>0.0726</v>
       </c>
       <c r="W24">
-        <v>0.0066</v>
+        <v>0.0726</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>0.1451999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2204,19 +2204,19 @@
         <v>0.09877572900000001</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.0396</v>
       </c>
       <c r="V25">
-        <v>0.0066</v>
+        <v>0.0462</v>
       </c>
       <c r="W25">
-        <v>0.0066</v>
+        <v>0.0264</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>0.09239999999999998</v>
       </c>
     </row>
   </sheetData>
